--- a/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
+++ b/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
@@ -530,7 +530,7 @@
         <v>64.87</v>
       </c>
       <c r="L2" t="n">
-        <v>35.0718561303953</v>
+        <v>34.99145570742087</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +568,7 @@
         <v>99.75</v>
       </c>
       <c r="L3" t="n">
-        <v>82.97437974669094</v>
+        <v>82.87547267233583</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>88.11</v>
       </c>
       <c r="L4" t="n">
-        <v>95.56843382261604</v>
+        <v>95.42857321598035</v>
       </c>
     </row>
     <row r="5">
@@ -644,7 +644,7 @@
         <v>106.07</v>
       </c>
       <c r="L5" t="n">
-        <v>105.9842951793289</v>
+        <v>105.8563646937574</v>
       </c>
     </row>
     <row r="6">
@@ -682,7 +682,7 @@
         <v>137.32</v>
       </c>
       <c r="L6" t="n">
-        <v>150.4606357387942</v>
+        <v>150.3626405230133</v>
       </c>
     </row>
     <row r="7">
@@ -720,7 +720,7 @@
         <v>188.14</v>
       </c>
       <c r="L7" t="n">
-        <v>188.2391211292826</v>
+        <v>188.1556544013381</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
         <v>219.91</v>
       </c>
       <c r="L8" t="n">
-        <v>219.8645274668087</v>
+        <v>219.7617956004039</v>
       </c>
     </row>
     <row r="9">
@@ -796,7 +796,7 @@
         <v>271.91</v>
       </c>
       <c r="L9" t="n">
-        <v>231.8096701880349</v>
+        <v>231.672426731644</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         <v>269.1</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4436696863375</v>
+        <v>219.3373308248425</v>
       </c>
     </row>
     <row r="11">
@@ -872,7 +872,7 @@
         <v>300.55</v>
       </c>
       <c r="L11" t="n">
-        <v>300.542026112721</v>
+        <v>300.452739251853</v>
       </c>
     </row>
     <row r="12">
@@ -910,7 +910,7 @@
         <v>338.45</v>
       </c>
       <c r="L12" t="n">
-        <v>383.9890245367541</v>
+        <v>383.9039355150908</v>
       </c>
     </row>
     <row r="13">
@@ -948,7 +948,7 @@
         <v>408.86</v>
       </c>
       <c r="L13" t="n">
-        <v>462.5660036824457</v>
+        <v>462.499840118307</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>476.72</v>
       </c>
       <c r="L14" t="n">
-        <v>553.8080505810655</v>
+        <v>553.7617590164718</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1024,7 @@
         <v>838.99</v>
       </c>
       <c r="L15" t="n">
-        <v>690.8081555442679</v>
+        <v>690.784714193349</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>843.14</v>
       </c>
       <c r="L16" t="n">
-        <v>843.1962198733593</v>
+        <v>843.1564758190151</v>
       </c>
     </row>
     <row r="17">
@@ -1100,7 +1100,7 @@
         <v>1107.67</v>
       </c>
       <c r="L17" t="n">
-        <v>1086.920676197427</v>
+        <v>1087.034304666005</v>
       </c>
     </row>
     <row r="18">
@@ -1138,7 +1138,7 @@
         <v>1399.16</v>
       </c>
       <c r="L18" t="n">
-        <v>1377.026451192755</v>
+        <v>1377.176758643433</v>
       </c>
     </row>
     <row r="19">
@@ -1176,7 +1176,7 @@
         <v>1535.14</v>
       </c>
       <c r="L19" t="n">
-        <v>1535.326388972528</v>
+        <v>1535.34230280404</v>
       </c>
     </row>
     <row r="20">
@@ -1214,7 +1214,7 @@
         <v>1579.68</v>
       </c>
       <c r="L20" t="n">
-        <v>1740.36142655054</v>
+        <v>1740.289506370188</v>
       </c>
     </row>
     <row r="21">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2185.14626053319</v>
+        <v>2185.30244772537</v>
       </c>
     </row>
     <row r="23">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>2535.290559084228</v>
+        <v>2535.498017852265</v>
       </c>
     </row>
   </sheetData>

--- a/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
+++ b/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
@@ -530,7 +530,7 @@
         <v>64.87</v>
       </c>
       <c r="L2" t="n">
-        <v>34.99145570742087</v>
+        <v>35.11039095815488</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +568,7 @@
         <v>99.75</v>
       </c>
       <c r="L3" t="n">
-        <v>82.87547267233583</v>
+        <v>83.03369499207486</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>88.11</v>
       </c>
       <c r="L4" t="n">
-        <v>95.42857321598035</v>
+        <v>95.67033182161958</v>
       </c>
     </row>
     <row r="5">
@@ -644,7 +644,7 @@
         <v>106.07</v>
       </c>
       <c r="L5" t="n">
-        <v>105.8563646937574</v>
+        <v>106.0699999999997</v>
       </c>
     </row>
     <row r="6">
@@ -682,7 +682,7 @@
         <v>137.32</v>
       </c>
       <c r="L6" t="n">
-        <v>150.3626405230133</v>
+        <v>150.5144135559914</v>
       </c>
     </row>
     <row r="7">
@@ -720,7 +720,7 @@
         <v>188.14</v>
       </c>
       <c r="L7" t="n">
-        <v>188.1556544013381</v>
+        <v>188.2746945360469</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
         <v>219.91</v>
       </c>
       <c r="L8" t="n">
-        <v>219.7617956004039</v>
+        <v>219.9233860112757</v>
       </c>
     </row>
     <row r="9">
@@ -796,7 +796,7 @@
         <v>271.91</v>
       </c>
       <c r="L9" t="n">
-        <v>231.672426731644</v>
+        <v>231.8983039928501</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         <v>269.1</v>
       </c>
       <c r="L10" t="n">
-        <v>219.3373308248425</v>
+        <v>219.4782154258008</v>
       </c>
     </row>
     <row r="11">
@@ -872,7 +872,7 @@
         <v>300.55</v>
       </c>
       <c r="L11" t="n">
-        <v>300.452739251853</v>
+        <v>300.5565281350128</v>
       </c>
     </row>
     <row r="12">
@@ -910,7 +910,7 @@
         <v>338.45</v>
       </c>
       <c r="L12" t="n">
-        <v>383.9039355150908</v>
+        <v>383.993082900696</v>
       </c>
     </row>
     <row r="13">
@@ -948,7 +948,7 @@
         <v>408.86</v>
       </c>
       <c r="L13" t="n">
-        <v>462.499840118307</v>
+        <v>462.5384178525948</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>476.72</v>
       </c>
       <c r="L14" t="n">
-        <v>553.7617590164718</v>
+        <v>553.7471496136086</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1024,7 @@
         <v>838.99</v>
       </c>
       <c r="L15" t="n">
-        <v>690.784714193349</v>
+        <v>690.7174493674082</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>843.14</v>
       </c>
       <c r="L16" t="n">
-        <v>843.1564758190151</v>
+        <v>843.1129682261092</v>
       </c>
     </row>
     <row r="17">
@@ -1100,7 +1100,7 @@
         <v>1107.67</v>
       </c>
       <c r="L17" t="n">
-        <v>1087.034304666005</v>
+        <v>1086.666869974193</v>
       </c>
     </row>
     <row r="18">
@@ -1138,7 +1138,7 @@
         <v>1399.16</v>
       </c>
       <c r="L18" t="n">
-        <v>1377.176758643433</v>
+        <v>1376.703417797431</v>
       </c>
     </row>
     <row r="19">
@@ -1176,7 +1176,7 @@
         <v>1535.14</v>
       </c>
       <c r="L19" t="n">
-        <v>1535.34230280404</v>
+        <v>1535.125731783479</v>
       </c>
     </row>
     <row r="20">
@@ -1214,7 +1214,7 @@
         <v>1579.68</v>
       </c>
       <c r="L20" t="n">
-        <v>1740.289506370188</v>
+        <v>1740.24302812475</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1252,7 @@
         <v>2088.14</v>
       </c>
       <c r="L21" t="n">
-        <v>2088.14</v>
+        <v>2087.922809019648</v>
       </c>
     </row>
     <row r="22">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2185.30244772537</v>
+        <v>2184.712004175161</v>
       </c>
     </row>
     <row r="23">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>2535.498017852265</v>
+        <v>2534.760517279878</v>
       </c>
     </row>
   </sheetData>

--- a/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
+++ b/分类与回归/test/tmp/new_reg_data_GM11_revenue.xlsx
@@ -530,7 +530,7 @@
         <v>64.87</v>
       </c>
       <c r="L2" t="n">
-        <v>35.11039095815488</v>
+        <v>34.97223759735789</v>
       </c>
     </row>
     <row r="3">
@@ -568,7 +568,7 @@
         <v>99.75</v>
       </c>
       <c r="L3" t="n">
-        <v>83.03369499207486</v>
+        <v>82.89085196529913</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>88.11</v>
       </c>
       <c r="L4" t="n">
-        <v>95.67033182161958</v>
+        <v>95.51174113655156</v>
       </c>
     </row>
     <row r="5">
@@ -644,7 +644,7 @@
         <v>106.07</v>
       </c>
       <c r="L5" t="n">
-        <v>106.0699999999997</v>
+        <v>105.926480378113</v>
       </c>
     </row>
     <row r="6">
@@ -682,7 +682,7 @@
         <v>137.32</v>
       </c>
       <c r="L6" t="n">
-        <v>150.5144135559914</v>
+        <v>150.3915739951819</v>
       </c>
     </row>
     <row r="7">
@@ -720,7 +720,7 @@
         <v>188.14</v>
       </c>
       <c r="L7" t="n">
-        <v>188.2746945360469</v>
+        <v>188.1681430024179</v>
       </c>
     </row>
     <row r="8">
@@ -758,7 +758,7 @@
         <v>219.91</v>
       </c>
       <c r="L8" t="n">
-        <v>219.9233860112757</v>
+        <v>219.8135624091989</v>
       </c>
     </row>
     <row r="9">
@@ -796,7 +796,7 @@
         <v>271.91</v>
       </c>
       <c r="L9" t="n">
-        <v>231.8983039928501</v>
+        <v>231.7829540994298</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         <v>269.1</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4782154258008</v>
+        <v>219.4004215850594</v>
       </c>
     </row>
     <row r="11">
@@ -872,7 +872,7 @@
         <v>300.55</v>
       </c>
       <c r="L11" t="n">
-        <v>300.5565281350128</v>
+        <v>300.4945845702782</v>
       </c>
     </row>
     <row r="12">
@@ -910,7 +910,7 @@
         <v>338.45</v>
       </c>
       <c r="L12" t="n">
-        <v>383.993082900696</v>
+        <v>383.9472368841109</v>
       </c>
     </row>
     <row r="13">
@@ -948,7 +948,7 @@
         <v>408.86</v>
       </c>
       <c r="L13" t="n">
-        <v>462.5384178525948</v>
+        <v>462.5216880177481</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>476.72</v>
       </c>
       <c r="L14" t="n">
-        <v>553.7471496136086</v>
+        <v>553.7596138002523</v>
       </c>
     </row>
     <row r="15">
@@ -1024,7 +1024,7 @@
         <v>838.99</v>
       </c>
       <c r="L15" t="n">
-        <v>690.7174493674082</v>
+        <v>690.7553018763965</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1062,7 @@
         <v>843.14</v>
       </c>
       <c r="L16" t="n">
-        <v>843.1129682261092</v>
+        <v>843.161795041699</v>
       </c>
     </row>
     <row r="17">
@@ -1100,7 +1100,7 @@
         <v>1107.67</v>
       </c>
       <c r="L17" t="n">
-        <v>1086.666869974193</v>
+        <v>1086.814389076515</v>
       </c>
     </row>
     <row r="18">
@@ -1138,7 +1138,7 @@
         <v>1399.16</v>
       </c>
       <c r="L18" t="n">
-        <v>1376.703417797431</v>
+        <v>1376.912957707925</v>
       </c>
     </row>
     <row r="19">
@@ -1176,7 +1176,7 @@
         <v>1535.14</v>
       </c>
       <c r="L19" t="n">
-        <v>1535.125731783479</v>
+        <v>1535.294131901315</v>
       </c>
     </row>
     <row r="20">
@@ -1214,7 +1214,7 @@
         <v>1579.68</v>
       </c>
       <c r="L20" t="n">
-        <v>1740.24302812475</v>
+        <v>1740.387276304789</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1252,7 @@
         <v>2088.14</v>
       </c>
       <c r="L21" t="n">
-        <v>2087.922809019648</v>
+        <v>2088.139999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>2184.712004175161</v>
+        <v>2185.064807089514</v>
       </c>
     </row>
     <row r="23">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>2534.760517279878</v>
+        <v>2535.193357971287</v>
       </c>
     </row>
   </sheetData>
